--- a/inst/shiny-examples/MassNBCtools/Extras/Tables/Maintenance_Log.xlsx
+++ b/inst/shiny-examples/MassNBCtools/Extras/Tables/Maintenance_Log.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://tetratechinc-my.sharepoint.com/personal/ben_block_tetratech_com/Documents/GitHub/MassNBCtools/inst/shiny-examples/MassNBCtools/Extras/Tables/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="164" documentId="11_F25DC773A252ABDACC1048C1615860685BDE58E9" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8BBFB2D2-15FE-4C78-9D63-15B9BECF2C05}"/>
+  <xr:revisionPtr revIDLastSave="174" documentId="11_F25DC773A252ABDACC1048C1615860685BDE58E9" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6723A9EF-BF85-4A3E-A957-8CE56A2FD356}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14016" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Log" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="68">
   <si>
     <t>File Name</t>
   </si>
@@ -63,9 +63,6 @@
     <t>AU_Data.csv</t>
   </si>
   <si>
-    <t>Images for About Tab Instructions.</t>
-  </si>
-  <si>
     <t>Input: Land Evaluation tab</t>
   </si>
   <si>
@@ -226,6 +223,12 @@
   </si>
   <si>
     <t>Provides lat/long of centroid for each AU.</t>
+  </si>
+  <si>
+    <t>Input_Metals.png</t>
+  </si>
+  <si>
+    <t>Image for About Tab Instructions.</t>
   </si>
 </sst>
 </file>
@@ -544,22 +547,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E30"/>
+  <dimension ref="A1:E31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="32.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="74.21875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="34.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.6640625" customWidth="1"/>
-    <col min="5" max="5" width="16.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="32.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="74.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="34.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.7109375" customWidth="1"/>
+    <col min="5" max="5" width="16.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -570,502 +573,519 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>12</v>
+        <v>67</v>
       </c>
       <c r="C2" t="s">
         <v>9</v>
       </c>
       <c r="D2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E2" s="1">
         <v>44970</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>12</v>
+        <v>67</v>
       </c>
       <c r="C3" t="s">
         <v>9</v>
       </c>
       <c r="D3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E3" s="1">
         <v>44970</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>12</v>
+        <v>67</v>
       </c>
       <c r="C4" t="s">
         <v>9</v>
       </c>
       <c r="D4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E4" s="1">
         <v>44970</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>12</v>
+        <v>67</v>
       </c>
       <c r="C5" t="s">
         <v>9</v>
       </c>
       <c r="D5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E5" s="1">
         <v>44970</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>7</v>
       </c>
       <c r="B6" t="s">
-        <v>12</v>
+        <v>67</v>
       </c>
       <c r="C6" t="s">
         <v>9</v>
       </c>
       <c r="D6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E6" s="1">
         <v>44970</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>8</v>
+        <v>66</v>
       </c>
       <c r="B7" t="s">
-        <v>12</v>
+        <v>67</v>
       </c>
       <c r="C7" t="s">
         <v>9</v>
       </c>
       <c r="D7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E7" s="1">
+        <v>44981</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" t="s">
+        <v>67</v>
+      </c>
+      <c r="C8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8" t="s">
+        <v>24</v>
+      </c>
+      <c r="E8" s="1">
         <v>44970</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>29</v>
-      </c>
-      <c r="B8" t="s">
-        <v>14</v>
-      </c>
-      <c r="C8" t="s">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>28</v>
+      </c>
+      <c r="B9" t="s">
         <v>13</v>
       </c>
-      <c r="D8" t="s">
-        <v>26</v>
-      </c>
-      <c r="E8" s="1">
-        <v>44952</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>10</v>
-      </c>
-      <c r="B9" t="s">
-        <v>66</v>
-      </c>
       <c r="C9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D9" t="s">
         <v>25</v>
       </c>
       <c r="E9" s="1">
+        <v>44952</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" t="s">
+        <v>65</v>
+      </c>
+      <c r="C10" t="s">
+        <v>12</v>
+      </c>
+      <c r="D10" t="s">
+        <v>24</v>
+      </c>
+      <c r="E10" s="1">
         <v>44958</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
         <v>11</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B11" t="s">
+        <v>14</v>
+      </c>
+      <c r="C11" t="s">
+        <v>12</v>
+      </c>
+      <c r="D11" t="s">
+        <v>24</v>
+      </c>
+      <c r="E11" s="1">
+        <v>44980</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
         <v>15</v>
       </c>
-      <c r="C10" t="s">
-        <v>13</v>
-      </c>
-      <c r="D10" t="s">
+      <c r="B12" t="s">
+        <v>54</v>
+      </c>
+      <c r="C12" t="s">
+        <v>12</v>
+      </c>
+      <c r="D12" t="s">
         <v>25</v>
       </c>
-      <c r="E10" s="1">
-        <v>44980</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
+      <c r="E12" s="1">
+        <v>44970</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
         <v>16</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B13" t="s">
         <v>55</v>
       </c>
-      <c r="C11" t="s">
-        <v>13</v>
-      </c>
-      <c r="D11" t="s">
+      <c r="C13" t="s">
+        <v>12</v>
+      </c>
+      <c r="D13" t="s">
+        <v>25</v>
+      </c>
+      <c r="E13" s="1">
+        <v>44964</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>17</v>
+      </c>
+      <c r="B14" t="s">
+        <v>56</v>
+      </c>
+      <c r="C14" t="s">
+        <v>12</v>
+      </c>
+      <c r="D14" t="s">
         <v>26</v>
-      </c>
-      <c r="E11" s="1">
-        <v>44970</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>17</v>
-      </c>
-      <c r="B12" t="s">
-        <v>56</v>
-      </c>
-      <c r="C12" t="s">
-        <v>13</v>
-      </c>
-      <c r="D12" t="s">
-        <v>26</v>
-      </c>
-      <c r="E12" s="1">
-        <v>44964</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>18</v>
-      </c>
-      <c r="B13" t="s">
-        <v>57</v>
-      </c>
-      <c r="C13" t="s">
-        <v>13</v>
-      </c>
-      <c r="D13" t="s">
-        <v>27</v>
-      </c>
-      <c r="E13" s="1">
-        <v>44958</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>19</v>
-      </c>
-      <c r="B14" t="s">
-        <v>58</v>
-      </c>
-      <c r="C14" t="s">
-        <v>13</v>
-      </c>
-      <c r="D14" t="s">
-        <v>28</v>
       </c>
       <c r="E14" s="1">
         <v>44958</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B15" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C15" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D15" t="s">
         <v>27</v>
       </c>
       <c r="E15" s="1">
+        <v>44958</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>19</v>
+      </c>
+      <c r="B16" t="s">
+        <v>58</v>
+      </c>
+      <c r="C16" t="s">
+        <v>12</v>
+      </c>
+      <c r="D16" t="s">
+        <v>26</v>
+      </c>
+      <c r="E16" s="1">
         <v>44964</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
-        <v>21</v>
-      </c>
-      <c r="B16" t="s">
-        <v>60</v>
-      </c>
-      <c r="C16" t="s">
-        <v>13</v>
-      </c>
-      <c r="D16" t="s">
-        <v>28</v>
-      </c>
-      <c r="E16" s="1">
-        <v>44958</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B17" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C17" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D17" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E17" s="1">
         <v>44958</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B18" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C18" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D18" t="s">
         <v>27</v>
       </c>
       <c r="E18" s="1">
+        <v>44958</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>22</v>
+      </c>
+      <c r="B19" t="s">
+        <v>61</v>
+      </c>
+      <c r="C19" t="s">
+        <v>12</v>
+      </c>
+      <c r="D19" t="s">
+        <v>26</v>
+      </c>
+      <c r="E19" s="1">
         <v>44970</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>29</v>
+      </c>
+      <c r="B20" t="s">
         <v>30</v>
       </c>
-      <c r="B19" t="s">
+      <c r="C20" t="s">
+        <v>35</v>
+      </c>
+      <c r="D20" t="s">
+        <v>26</v>
+      </c>
+      <c r="E20" s="1">
+        <v>44967</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
         <v>31</v>
       </c>
-      <c r="C19" t="s">
+      <c r="B21" t="s">
+        <v>32</v>
+      </c>
+      <c r="C21" t="s">
+        <v>12</v>
+      </c>
+      <c r="D21" t="s">
+        <v>24</v>
+      </c>
+      <c r="E21" s="1">
+        <v>44980</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>33</v>
+      </c>
+      <c r="B22" t="s">
+        <v>34</v>
+      </c>
+      <c r="C22" t="s">
+        <v>35</v>
+      </c>
+      <c r="D22" t="s">
+        <v>25</v>
+      </c>
+      <c r="E22" s="1">
+        <v>44489</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
         <v>36</v>
       </c>
-      <c r="D19" t="s">
-        <v>27</v>
-      </c>
-      <c r="E19" s="1">
-        <v>44967</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
-        <v>32</v>
-      </c>
-      <c r="B20" t="s">
-        <v>33</v>
-      </c>
-      <c r="C20" t="s">
-        <v>13</v>
-      </c>
-      <c r="D20" t="s">
-        <v>25</v>
-      </c>
-      <c r="E20" s="1">
-        <v>44980</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
-        <v>34</v>
-      </c>
-      <c r="B21" t="s">
-        <v>35</v>
-      </c>
-      <c r="C21" t="s">
-        <v>36</v>
-      </c>
-      <c r="D21" t="s">
-        <v>26</v>
-      </c>
-      <c r="E21" s="1">
-        <v>44489</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
+      <c r="B23" t="s">
         <v>37</v>
       </c>
-      <c r="B22" t="s">
+      <c r="C23" t="s">
         <v>38</v>
-      </c>
-      <c r="C22" t="s">
-        <v>39</v>
-      </c>
-      <c r="D22" t="s">
-        <v>26</v>
-      </c>
-      <c r="E22" s="1">
-        <v>44967</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
-        <v>41</v>
-      </c>
-      <c r="B23" t="s">
-        <v>63</v>
-      </c>
-      <c r="C23" t="s">
-        <v>40</v>
       </c>
       <c r="D23" t="s">
         <v>25</v>
       </c>
       <c r="E23" s="1">
+        <v>44967</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>40</v>
+      </c>
+      <c r="B24" t="s">
+        <v>62</v>
+      </c>
+      <c r="C24" t="s">
+        <v>39</v>
+      </c>
+      <c r="D24" t="s">
+        <v>24</v>
+      </c>
+      <c r="E24" s="1">
         <v>44964</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>41</v>
+      </c>
+      <c r="B25" t="s">
+        <v>63</v>
+      </c>
+      <c r="C25" t="s">
+        <v>39</v>
+      </c>
+      <c r="D25" t="s">
+        <v>24</v>
+      </c>
+      <c r="E25" s="1">
+        <v>44970</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
         <v>42</v>
       </c>
-      <c r="B24" t="s">
-        <v>64</v>
-      </c>
-      <c r="C24" t="s">
-        <v>40</v>
-      </c>
-      <c r="D24" t="s">
-        <v>25</v>
-      </c>
-      <c r="E24" s="1">
-        <v>44970</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
+      <c r="B26" t="s">
         <v>43</v>
       </c>
-      <c r="B25" t="s">
+      <c r="C26" t="s">
+        <v>39</v>
+      </c>
+      <c r="D26" t="s">
+        <v>26</v>
+      </c>
+      <c r="E26" s="1">
+        <v>44868</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
         <v>44</v>
       </c>
-      <c r="C25" t="s">
-        <v>40</v>
-      </c>
-      <c r="D25" t="s">
+      <c r="B27" t="s">
+        <v>45</v>
+      </c>
+      <c r="C27" t="s">
+        <v>39</v>
+      </c>
+      <c r="D27" t="s">
         <v>27</v>
       </c>
-      <c r="E25" s="1">
-        <v>44868</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A26" t="s">
-        <v>45</v>
-      </c>
-      <c r="B26" t="s">
+      <c r="E27" s="1">
+        <v>44958</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
         <v>46</v>
       </c>
-      <c r="C26" t="s">
-        <v>40</v>
-      </c>
-      <c r="D26" t="s">
-        <v>28</v>
-      </c>
-      <c r="E26" s="1">
-        <v>44958</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A27" t="s">
+      <c r="B28" t="s">
         <v>47</v>
       </c>
-      <c r="B27" t="s">
+      <c r="C28" t="s">
+        <v>39</v>
+      </c>
+      <c r="D28" t="s">
+        <v>24</v>
+      </c>
+      <c r="E28" s="1">
+        <v>44964</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
         <v>48</v>
       </c>
-      <c r="C27" t="s">
-        <v>40</v>
-      </c>
-      <c r="D27" t="s">
-        <v>25</v>
-      </c>
-      <c r="E27" s="1">
-        <v>44964</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A28" t="s">
+      <c r="B29" t="s">
         <v>49</v>
       </c>
-      <c r="B28" t="s">
-        <v>50</v>
-      </c>
-      <c r="C28" t="s">
-        <v>40</v>
-      </c>
-      <c r="D28" t="s">
-        <v>28</v>
-      </c>
-      <c r="E28" s="1">
-        <v>44958</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A29" t="s">
-        <v>51</v>
-      </c>
-      <c r="B29" t="s">
-        <v>52</v>
-      </c>
       <c r="C29" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D29" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E29" s="1">
         <v>44958</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B30" t="s">
-        <v>65</v>
+        <v>51</v>
       </c>
       <c r="C30" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D30" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E30" s="1">
+        <v>44958</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>52</v>
+      </c>
+      <c r="B31" t="s">
+        <v>64</v>
+      </c>
+      <c r="C31" t="s">
+        <v>39</v>
+      </c>
+      <c r="D31" t="s">
+        <v>24</v>
+      </c>
+      <c r="E31" s="1">
         <v>44970</v>
       </c>
     </row>

--- a/inst/shiny-examples/MassNBCtools/Extras/Tables/Maintenance_Log.xlsx
+++ b/inst/shiny-examples/MassNBCtools/Extras/Tables/Maintenance_Log.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26026"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://tetratechinc-my.sharepoint.com/personal/ben_block_tetratech_com/Documents/GitHub/MassNBCtools/inst/shiny-examples/MassNBCtools/Extras/Tables/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="174" documentId="11_F25DC773A252ABDACC1048C1615860685BDE58E9" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6723A9EF-BF85-4A3E-A957-8CE56A2FD356}"/>
+  <xr:revisionPtr revIDLastSave="176" documentId="11_F25DC773A252ABDACC1048C1615860685BDE58E9" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4F1BD9D9-966B-4428-A02C-D6A37FB45FA9}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Log" sheetId="1" r:id="rId1"/>
@@ -550,7 +550,7 @@
   <dimension ref="A1:E31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -593,7 +593,7 @@
         <v>24</v>
       </c>
       <c r="E2" s="1">
-        <v>44970</v>
+        <v>45019</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -610,7 +610,7 @@
         <v>24</v>
       </c>
       <c r="E3" s="1">
-        <v>44970</v>
+        <v>45019</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -627,7 +627,7 @@
         <v>24</v>
       </c>
       <c r="E4" s="1">
-        <v>44970</v>
+        <v>45019</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -644,7 +644,7 @@
         <v>24</v>
       </c>
       <c r="E5" s="1">
-        <v>44970</v>
+        <v>45019</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -661,7 +661,7 @@
         <v>24</v>
       </c>
       <c r="E6" s="1">
-        <v>44970</v>
+        <v>45019</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
@@ -678,7 +678,7 @@
         <v>24</v>
       </c>
       <c r="E7" s="1">
-        <v>44981</v>
+        <v>45019</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
@@ -695,7 +695,7 @@
         <v>24</v>
       </c>
       <c r="E8" s="1">
-        <v>44970</v>
+        <v>45019</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">

--- a/inst/shiny-examples/MassNBCtools/Extras/Tables/Maintenance_Log.xlsx
+++ b/inst/shiny-examples/MassNBCtools/Extras/Tables/Maintenance_Log.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://tetratechinc-my.sharepoint.com/personal/ben_block_tetratech_com/Documents/GitHub/MassNBCtools/inst/shiny-examples/MassNBCtools/Extras/Tables/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="176" documentId="11_F25DC773A252ABDACC1048C1615860685BDE58E9" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4F1BD9D9-966B-4428-A02C-D6A37FB45FA9}"/>
+  <xr:revisionPtr revIDLastSave="182" documentId="11_F25DC773A252ABDACC1048C1615860685BDE58E9" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6B97DB5C-7D32-4126-A646-9A09A4DEB9BD}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Log" sheetId="1" r:id="rId1"/>
@@ -147,9 +147,6 @@
     <t>data-raw\GIS_Data</t>
   </si>
   <si>
-    <t>305BasinMerge2022_20mSimp.shp</t>
-  </si>
-  <si>
     <t>2022arcs_mergeDRAFT_10mSimp.shp</t>
   </si>
   <si>
@@ -229,6 +226,9 @@
   </si>
   <si>
     <t>Image for About Tab Instructions.</t>
+  </si>
+  <si>
+    <t>305BasinMergeMarch2023_20mSimp.shp</t>
   </si>
 </sst>
 </file>
@@ -550,12 +550,12 @@
   <dimension ref="A1:E31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A22" sqref="A22"/>
+      <selection activeCell="A24" sqref="A24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="32.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="37.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="74.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="34.85546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13.7109375" customWidth="1"/>
@@ -576,7 +576,7 @@
         <v>23</v>
       </c>
       <c r="E1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -584,7 +584,7 @@
         <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C2" t="s">
         <v>9</v>
@@ -601,7 +601,7 @@
         <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C3" t="s">
         <v>9</v>
@@ -618,7 +618,7 @@
         <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C4" t="s">
         <v>9</v>
@@ -635,7 +635,7 @@
         <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C5" t="s">
         <v>9</v>
@@ -652,7 +652,7 @@
         <v>7</v>
       </c>
       <c r="B6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C6" t="s">
         <v>9</v>
@@ -666,10 +666,10 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
+        <v>65</v>
+      </c>
+      <c r="B7" t="s">
         <v>66</v>
-      </c>
-      <c r="B7" t="s">
-        <v>67</v>
       </c>
       <c r="C7" t="s">
         <v>9</v>
@@ -686,7 +686,7 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C8" t="s">
         <v>9</v>
@@ -712,7 +712,7 @@
         <v>25</v>
       </c>
       <c r="E9" s="1">
-        <v>44952</v>
+        <v>45047</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
@@ -720,7 +720,7 @@
         <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C10" t="s">
         <v>12</v>
@@ -729,7 +729,7 @@
         <v>24</v>
       </c>
       <c r="E10" s="1">
-        <v>44958</v>
+        <v>45047</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
@@ -746,7 +746,7 @@
         <v>24</v>
       </c>
       <c r="E11" s="1">
-        <v>44980</v>
+        <v>45047</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
@@ -754,7 +754,7 @@
         <v>15</v>
       </c>
       <c r="B12" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C12" t="s">
         <v>12</v>
@@ -771,7 +771,7 @@
         <v>16</v>
       </c>
       <c r="B13" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C13" t="s">
         <v>12</v>
@@ -780,7 +780,7 @@
         <v>25</v>
       </c>
       <c r="E13" s="1">
-        <v>44964</v>
+        <v>45047</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
@@ -788,7 +788,7 @@
         <v>17</v>
       </c>
       <c r="B14" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C14" t="s">
         <v>12</v>
@@ -805,7 +805,7 @@
         <v>18</v>
       </c>
       <c r="B15" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C15" t="s">
         <v>12</v>
@@ -822,7 +822,7 @@
         <v>19</v>
       </c>
       <c r="B16" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C16" t="s">
         <v>12</v>
@@ -839,7 +839,7 @@
         <v>20</v>
       </c>
       <c r="B17" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C17" t="s">
         <v>12</v>
@@ -856,7 +856,7 @@
         <v>21</v>
       </c>
       <c r="B18" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C18" t="s">
         <v>12</v>
@@ -873,7 +873,7 @@
         <v>22</v>
       </c>
       <c r="B19" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C19" t="s">
         <v>12</v>
@@ -955,10 +955,10 @@
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>40</v>
+        <v>67</v>
       </c>
       <c r="B24" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C24" t="s">
         <v>39</v>
@@ -967,15 +967,15 @@
         <v>24</v>
       </c>
       <c r="E24" s="1">
-        <v>44964</v>
+        <v>45047</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B25" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C25" t="s">
         <v>39</v>
@@ -989,10 +989,10 @@
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
+        <v>41</v>
+      </c>
+      <c r="B26" t="s">
         <v>42</v>
-      </c>
-      <c r="B26" t="s">
-        <v>43</v>
       </c>
       <c r="C26" t="s">
         <v>39</v>
@@ -1006,10 +1006,10 @@
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
+        <v>43</v>
+      </c>
+      <c r="B27" t="s">
         <v>44</v>
-      </c>
-      <c r="B27" t="s">
-        <v>45</v>
       </c>
       <c r="C27" t="s">
         <v>39</v>
@@ -1023,10 +1023,10 @@
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
+        <v>45</v>
+      </c>
+      <c r="B28" t="s">
         <v>46</v>
-      </c>
-      <c r="B28" t="s">
-        <v>47</v>
       </c>
       <c r="C28" t="s">
         <v>39</v>
@@ -1040,10 +1040,10 @@
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
+        <v>47</v>
+      </c>
+      <c r="B29" t="s">
         <v>48</v>
-      </c>
-      <c r="B29" t="s">
-        <v>49</v>
       </c>
       <c r="C29" t="s">
         <v>39</v>
@@ -1057,10 +1057,10 @@
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
+        <v>49</v>
+      </c>
+      <c r="B30" t="s">
         <v>50</v>
-      </c>
-      <c r="B30" t="s">
-        <v>51</v>
       </c>
       <c r="C30" t="s">
         <v>39</v>
@@ -1074,10 +1074,10 @@
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B31" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C31" t="s">
         <v>39</v>
